--- a/xlsx/美国电影_intext.xlsx
+++ b/xlsx/美国电影_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
   <si>
     <t>美国电影</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国电影</t>
+    <t>政策_政策_美国_美国电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
   </si>
   <si>
-    <t>好萊塢</t>
+    <t>好莱坞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A6%82%E5%BF%B5</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E7%88%B1%E8%BF%AA%E7%94%9F</t>
@@ -143,13 +143,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
   </si>
   <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%A0%BC%E9%87%8C%E8%8F%B2%E6%96%AF</t>
   </si>
   <si>
-    <t>大衛·格里菲斯</t>
+    <t>大卫·格里菲斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%89%E8%8E%B2%C2%B7%E5%90%89%E4%BB%80</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%C2%B7%E7%A2%A7%E5%85%8B%E9%A6%A5</t>
   </si>
   <si>
-    <t>瑪麗·碧克馥</t>
+    <t>玛丽·碧克馥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%98%82%E7%BA%B3%E5%B0%94%C2%B7%E5%B7%B4%E9%87%8C%E6%91%A9%E5%B0%94</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E5%8A%89%E5%88%A5%E8%AC%99</t>
   </si>
   <si>
-    <t>恩斯特·劉別謙</t>
+    <t>恩斯特·刘别谦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E5%B8%8C%E5%8C%BA%E6%9F%AF%E5%85%8B</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E8%8C%83%E5%80%AB%E9%90%B5%E8%AB%BE</t>
   </si>
   <si>
-    <t>魯道夫·范倫鐵諾</t>
+    <t>鲁道夫·范伦铁诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E8%8E%B2%E5%A8%9C%C2%B7%E8%BF%AA%E7%89%B9%E9%87%8C%E8%8C%9C</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%A5%BF%E7%88%BE%C2%B7%E5%BE%B7%E7%B1%B3%E7%88%BE</t>
   </si>
   <si>
-    <t>賽西爾·德米爾</t>
+    <t>赛西尔·德米尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E7%94%B5%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
   </si>
   <si>
-    <t>威廉·福克納</t>
+    <t>威廉·福克纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%C2%B7%E7%9B%96%E5%8D%9A</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E%C2%B7%E5%B1%88%E8%B3%BD</t>
   </si>
   <si>
-    <t>斯賓塞·屈賽</t>
+    <t>斯宾塞·屈赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E8%BF%AA%C2%B7%E5%8A%A0%E5%85%B0</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%A3%AE%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>奧森·威爾斯</t>
+    <t>奥森·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E5%87%AF%E6%81%A9</t>
@@ -515,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%C2%B7%E5%8D%A1%E6%99%AE%E6%8B%89</t>
   </si>
   <si>
-    <t>法蘭克·卡普拉</t>
+    <t>法兰克·卡普拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%87%8E%E4%BB%99%E8%B9%A4</t>
   </si>
   <si>
-    <t>綠野仙蹤</t>
+    <t>绿野仙踪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%BF%E9%A9%AC%E8%BD%A6</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A6%AE%E5%B8%BD</t>
   </si>
   <si>
-    <t>大禮帽</t>
+    <t>大礼帽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E6%9C%BA</t>
@@ -605,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>環球影城</t>
+    <t>环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>哥倫比亞影業</t>
+    <t>哥伦比亚影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>星際大戰</t>
+    <t>星际大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
@@ -647,13 +644,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E5%BD%B1%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國電影協會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國文化</t>
+    <t>美国文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -677,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>澳洲電影</t>
+    <t>澳洲电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%8C%AA%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>警匪電影</t>
+    <t>警匪电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1%E5%AD%A6%E4%BC%9A</t>
@@ -707,43 +701,40 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
+    <t>时代 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>Template talk-美利堅合眾國電影</t>
+    <t>Template talk-美利坚合众国电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國電影列表</t>
+    <t>美国电影列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A9%95%E8%AB%96%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國家評論協會</t>
+    <t>国家评论协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E7%8D%8E</t>
   </si>
   <si>
-    <t>奧斯卡金像獎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%BD%B1%E8%A9%95%E4%BA%BA%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>紐約影評人協會</t>
+    <t>纽约影评人协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E5%BD%B1%E8%97%9D%E8%A1%93%E8%88%87%E7%A7%91%E5%AD%B8%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國電影藝術與科學學會</t>
+    <t>美国电影艺术与科学学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E%E5%A4%96%E5%9B%BD%E8%AE%B0%E8%80%85%E5%8D%8F%E4%BC%9A</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BD%B1%E7%89%87%E7%99%BB%E8%A8%98%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家影片登記表</t>
+    <t>国家影片登记表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E5%85%B8%E5%A5%BD%E8%8E%B1%E5%9D%9E%E7%94%B5%E5%BD%B1</t>
@@ -773,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E5%A5%BD%E8%90%8A%E5%A1%A2%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>美國新好萊塢電影</t>
+    <t>美国新好莱坞电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>東亞電影</t>
+    <t>东亚电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86%E7%94%B5%E5%BD%B1</t>
@@ -791,43 +782,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>香港電影</t>
+    <t>香港电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>澳門電影</t>
+    <t>澳门电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>台灣電影</t>
+    <t>台湾电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>日本電影</t>
+    <t>日本电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>韓國電影</t>
+    <t>韩国电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>朝鮮電影</t>
+    <t>朝鲜电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%AA%9E%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>華語電影</t>
+    <t>华语电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%94%B5%E5%BD%B1</t>
@@ -839,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>馬來西亞電影</t>
+    <t>马来西亚电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>越南電影</t>
+    <t>越南电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>柬埔寨電影</t>
+    <t>柬埔寨电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E7%94%B5%E5%BD%B1</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>俄羅斯電影</t>
+    <t>俄罗斯电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>西班牙電影</t>
+    <t>西班牙电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E7%94%B5%E5%BD%B1</t>
@@ -917,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9C%80%E9%AB%98%E9%9B%BB%E5%BD%B1%E7%A5%A8%E6%88%BF</t>
   </si>
   <si>
-    <t>全球最高電影票房</t>
+    <t>全球最高电影票房</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1859,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
         <v>47</v>
@@ -1894,10 +1885,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1923,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1952,10 +1943,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1981,10 +1972,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2010,10 +2001,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2039,10 +2030,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -2097,10 +2088,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2126,10 +2117,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2155,10 +2146,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2184,10 +2175,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2213,10 +2204,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2242,10 +2233,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2271,10 +2262,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2300,10 +2291,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>14</v>
@@ -2329,10 +2320,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2358,10 +2349,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2387,10 +2378,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2416,10 +2407,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2445,10 +2436,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2474,10 +2465,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2503,10 +2494,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2532,10 +2523,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2561,10 +2552,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2590,10 +2581,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
@@ -2619,10 +2610,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2648,10 +2639,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
@@ -2677,10 +2668,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2706,10 +2697,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2735,10 +2726,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2764,10 +2755,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2793,10 +2784,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2822,10 +2813,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2851,10 +2842,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2880,10 +2871,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2909,10 +2900,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2938,10 +2929,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2967,10 +2958,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2996,10 +2987,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3025,10 +3016,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3054,10 +3045,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3083,10 +3074,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3112,10 +3103,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -3141,10 +3132,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>7</v>
@@ -3170,10 +3161,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3199,10 +3190,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3228,10 +3219,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3257,10 +3248,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3286,10 +3277,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3315,10 +3306,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3344,10 +3335,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3373,10 +3364,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3402,10 +3393,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3431,10 +3422,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3460,10 +3451,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3489,10 +3480,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3518,10 +3509,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3547,10 +3538,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3576,10 +3567,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -3605,10 +3596,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3634,10 +3625,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3663,10 +3654,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3692,10 +3683,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -3721,10 +3712,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3750,10 +3741,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3779,10 +3770,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3808,10 +3799,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3837,10 +3828,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3866,10 +3857,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3895,10 +3886,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3924,10 +3915,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3953,10 +3944,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3982,10 +3973,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4011,10 +4002,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4040,10 +4031,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4069,10 +4060,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4098,10 +4089,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4127,10 +4118,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4156,10 +4147,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4185,10 +4176,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4214,10 +4205,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
@@ -4243,10 +4234,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4272,10 +4263,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4301,10 +4292,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4330,10 +4321,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>162</v>
+      </c>
+      <c r="F106" t="s">
         <v>163</v>
-      </c>
-      <c r="F106" t="s">
-        <v>164</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4359,10 +4350,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4388,10 +4379,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4417,10 +4408,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4446,10 +4437,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4475,10 +4466,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4504,10 +4495,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4533,10 +4524,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -4562,10 +4553,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114" t="s">
         <v>105</v>
-      </c>
-      <c r="F114" t="s">
-        <v>106</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4591,10 +4582,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4620,10 +4611,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4649,10 +4640,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4678,10 +4669,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4707,10 +4698,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4736,10 +4727,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>7</v>
@@ -4765,10 +4756,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4794,10 +4785,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4823,10 +4814,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4852,10 +4843,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4881,10 +4872,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4910,10 +4901,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4939,10 +4930,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4968,10 +4959,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4997,10 +4988,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5026,10 +5017,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5055,10 +5046,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5084,10 +5075,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5113,10 +5104,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -5142,10 +5133,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5171,10 +5162,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -5200,10 +5191,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5229,10 +5220,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5258,10 +5249,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5287,10 +5278,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5316,10 +5307,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5345,10 +5336,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5374,10 +5365,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5403,10 +5394,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5432,10 +5423,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5461,10 +5452,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5490,10 +5481,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5519,10 +5510,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5548,10 +5539,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5577,10 +5568,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F149" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5606,10 +5597,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5635,10 +5626,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>6</v>
@@ -5664,10 +5655,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5693,10 +5684,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5722,10 +5713,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5751,10 +5742,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
